--- a/Placement Data.xlsx
+++ b/Placement Data.xlsx
@@ -4304,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
